--- a/enriched_contacts_data.xlsx
+++ b/enriched_contacts_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,7 @@
     <col width="52" customWidth="1" min="3" max="3"/>
     <col width="42" customWidth="1" min="4" max="4"/>
     <col width="167" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,6 +467,11 @@
           <t>Title</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Company Verification</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -493,6 +499,11 @@
           <t>Operations and Supply Chain Leader</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>FloWorks</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -520,6 +531,11 @@
           <t>Attorney at Mitchell, Williams, Selig, Gates &amp; Woodyard, P.L.L.C.</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -547,6 +563,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -574,6 +595,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -601,6 +627,11 @@
           <t>Mine warfare tactics and doctrine analyst.</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -628,6 +659,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -655,6 +691,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -682,6 +723,11 @@
           <t>Sr. Sales Leader at School Specialty/National Sales Manager of the Year/Education, Furniture and Technology Expert</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -709,6 +755,11 @@
           <t>Contracts Attorney Tech, Cloud, SaaS, PaaS,</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -736,6 +787,11 @@
           <t>CEO - Spinny Capital</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -763,6 +819,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -790,6 +851,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -817,6 +883,11 @@
           <t>Sales Professional</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -844,6 +915,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -871,6 +947,11 @@
           <t>Financial Planning &amp; Analysis | Sales Performance Analysis | Accounting Manager | Sales Compensation | Partner with Senior Executives to achieve financial objectives</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Omnicell</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -898,6 +979,11 @@
           <t>Vice President, Supply Chain &amp; Pricing</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>DNOW</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -925,6 +1011,11 @@
           <t>APJ People Partner at Rubrik</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -952,6 +1043,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -979,6 +1075,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1006,6 +1107,11 @@
           <t>Project Engineer Dynamic FM</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1033,6 +1139,11 @@
           <t>Founder of the Financial Acumen Course &amp; Elite Financial Coach at The Prosperity Solutions Group</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1060,6 +1171,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1087,6 +1203,11 @@
           <t>Innovation Insights Sr. Manager at Blue Diamond Growers</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1114,6 +1235,11 @@
           <t>BI and Analytic Professional</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1141,6 +1267,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1168,6 +1299,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1195,6 +1331,11 @@
           <t>Healthcare Business Development</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1222,6 +1363,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1249,6 +1395,11 @@
           <t>Human Centered Leader l Sr Director | Sr. Industrial Engineer | Skilled in Operational Excellence</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Elbit Systems of America</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1274,6 +1425,11 @@
       <c r="E31" t="inlineStr">
         <is>
           <t>N/A</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Company does not match</t>
         </is>
       </c>
     </row>
